--- a/biology/Médecine/Caring/Caring.xlsx
+++ b/biology/Médecine/Caring/Caring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le caring (que l'on pourrait traduire par « prendre soin ») est un concept de soin infirmier proposé par Jean Watson en 1979. Le modèle décrit une approche humaniste élargie tenant compte de l'aspect spirituel de l'être humain.
-Le caring représente l’activité d’aider une autre personne à croître et à s’actualiser ; un processus, une manière d’entrer en relation avec l’autre qui favorise son développement[1].
-Pour Jean Watson, le caring est un ensemble de facteurs (qu’elle nomme « facteurs caratifs » en opposition au terme « curatifs ») qui fondent une démarche soignante favorisant soit le développement ou le maintien de la santé, soit une mort paisible[2].
+Le caring représente l’activité d’aider une autre personne à croître et à s’actualiser ; un processus, une manière d’entrer en relation avec l’autre qui favorise son développement.
+Pour Jean Watson, le caring est un ensemble de facteurs (qu’elle nomme « facteurs caratifs » en opposition au terme « curatifs ») qui fondent une démarche soignante favorisant soit le développement ou le maintien de la santé, soit une mort paisible.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Principes fondateurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les postulats de base du modèle prévoient :
 la vision holiste de l'être humain : l'être humain est étudié comme un tout formé d'un corps (le physique), d'un esprit (l'intelligence, la pensée, les émotions, les souvenirs, les sensations, etc.) et d'une âme (le spirituel, la culture, la religion, les croyances et valeurs profondes) ;
@@ -548,7 +562,9 @@
           <t>Les dix facteurs caratifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les valeurs humanistes et altruistes.
 La croyance et l’espoir.
